--- a/testing_results/inference_time_tai15x15.xlsx
+++ b/testing_results/inference_time_tai15x15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.930139946937561</v>
+        <v>3.157051086425781</v>
       </c>
       <c r="B2" t="n">
-        <v>2.932543587684632</v>
+        <v>3.059632039070129</v>
       </c>
       <c r="C2" t="n">
-        <v>2.919771337509155</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.907579922676086</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.91169126033783</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.942355513572693</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.941426539421081</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.908226871490478</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.914380526542664</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.880814981460571</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.886306190490723</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.93511061668396</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.87022135257721</v>
-      </c>
-      <c r="N2" t="n">
-        <v>45.61405963897705</v>
+        <v>49.35992572307587</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.892927646636963</v>
+        <v>6.752866172790528</v>
       </c>
       <c r="B3" t="n">
-        <v>5.870325803756714</v>
+        <v>6.411703133583069</v>
       </c>
       <c r="C3" t="n">
-        <v>5.843920707702637</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.811852240562439</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.846555089950561</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.825593638420105</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.881367349624634</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.815764117240906</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.852325916290283</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.754770612716674</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.819192719459534</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.876622343063355</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.690980005264282</v>
-      </c>
-      <c r="N3" t="n">
-        <v>94.37146723270416</v>
+        <v>104.3252518415451</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11.7266144990921</v>
+        <v>13.48183805942535</v>
       </c>
       <c r="B4" t="n">
-        <v>11.75263879299164</v>
+        <v>13.07745509147644</v>
       </c>
       <c r="C4" t="n">
-        <v>11.7476012468338</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.72129077911377</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.73886318206787</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11.73797056674957</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11.68450274467468</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11.78151037693024</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.72806565761566</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11.60935380458832</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.67324016094208</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11.68744432926178</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11.37052516937256</v>
-      </c>
-      <c r="N4" t="n">
-        <v>181.2134737491608</v>
+        <v>201.1084228038788</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34.11540279388428</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31.31893067359924</v>
+      </c>
+      <c r="C5" t="n">
+        <v>499.5086079359054</v>
       </c>
     </row>
   </sheetData>
